--- a/datasets/test.xlsx
+++ b/datasets/test.xlsx
@@ -372,142 +372,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
         <v>name</v>
       </c>
       <c r="B1" t="str">
-        <v>screenX</v>
+        <v>x</v>
       </c>
       <c r="C1" t="str">
-        <v>screenY</v>
-      </c>
-      <c r="D1" t="str">
-        <v>x</v>
-      </c>
-      <c r="E1" t="str">
         <v>y</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>dwqe</v>
+        <v>A</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>1615</v>
       </c>
       <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>aa</v>
+        <v>B</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>2851</v>
       </c>
       <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>dfef</v>
-      </c>
-      <c r="B4">
-        <v>209</v>
-      </c>
-      <c r="C4">
-        <v>221</v>
-      </c>
-      <c r="D4">
-        <v>869</v>
-      </c>
-      <c r="E4">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>fdaf</v>
-      </c>
-      <c r="B5">
-        <v>306</v>
-      </c>
-      <c r="C5">
-        <v>295</v>
-      </c>
-      <c r="D5">
-        <v>1294</v>
-      </c>
-      <c r="E5">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>erq</v>
-      </c>
-      <c r="B6">
-        <v>412</v>
-      </c>
-      <c r="C6">
-        <v>381</v>
-      </c>
-      <c r="D6">
-        <v>1757</v>
-      </c>
-      <c r="E6">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>feqr</v>
-      </c>
-      <c r="B7">
-        <v>599</v>
-      </c>
-      <c r="C7">
-        <v>458</v>
-      </c>
-      <c r="D7">
-        <v>2574</v>
-      </c>
-      <c r="E7">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>fefer</v>
-      </c>
-      <c r="B8">
-        <v>631</v>
-      </c>
-      <c r="C8">
-        <v>265</v>
-      </c>
-      <c r="D8">
-        <v>2714</v>
-      </c>
-      <c r="E8">
-        <v>936</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
